--- a/data/sample_inventory_2023-03-01.xlsx
+++ b/data/sample_inventory_2023-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucbtds4\R_Repositories\rodent_trapping\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1A702A-3921-454B-AEC0-591D2E11E8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5ADF0-41F9-49C5-B4AD-0D8C5AFDC343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_inventory" sheetId="1" r:id="rId1"/>
@@ -4348,9 +4348,9 @@
   </sheetPr>
   <dimension ref="A1:P653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B532" sqref="B532"/>
+      <selection pane="bottomLeft" activeCell="P534" sqref="P534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13894,7 +13894,7 @@
         <v>201</v>
       </c>
       <c r="P325" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -19252,7 +19252,7 @@
         <v>1070</v>
       </c>
       <c r="P532" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.3">
@@ -19272,7 +19272,7 @@
         <v>1071</v>
       </c>
       <c r="P533" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="534" spans="1:16" x14ac:dyDescent="0.3">
@@ -19292,7 +19292,7 @@
         <v>1072</v>
       </c>
       <c r="P534" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.3">

--- a/data/sample_inventory_2023-03-01.xlsx
+++ b/data/sample_inventory_2023-03-01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucbtds4\R_Repositories\rodent_trapping\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5ADF0-41F9-49C5-B4AD-0D8C5AFDC343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8EA16-2D70-4CD1-9BFE-DCDEFDF7CB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4343,14 +4343,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P534" sqref="P534"/>
+      <pane ySplit="1" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P565" sqref="P565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4417,7 +4417,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>3</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>3</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>3</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>3</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>3</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>3</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>3</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>3</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>3</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>3</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>3</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>3</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>3</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>3</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>3</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>3</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>3</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3</v>
       </c>
@@ -10434,7 +10434,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>4</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>4</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>4</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>4</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>4</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>4</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>4</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>4</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>4</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>4</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>4</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>4</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>4</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>4</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>4</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>4</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>4</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>4</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>4</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>4</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>4</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>4</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>4</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>4</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>4</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>4</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>4</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>4</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>4</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>4</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>4</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>4</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>4</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>4</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>4</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>4</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>4</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>4</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>4</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>4</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>4</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>4</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>4</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>4</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>4</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>4</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>4</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>4</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>4</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>4</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>4</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>4</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>4</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>4</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>4</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>4</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>4</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>4</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>4</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>4</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>4</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>4</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>4</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>4</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>4</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>4</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>4</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>4</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>4</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>4</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>4</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>4</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>4</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>4</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>4</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>4</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>4</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>4</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>4</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>4</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>4</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>5</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>5</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>5</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>5</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>5</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>5</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>5</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>5</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>5</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>5</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>5</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>5</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>5</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>5</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>5</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>5</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>5</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>5</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>5</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>5</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>5</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>5</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>5</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>5</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>5</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>5</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>5</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>5</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>5</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>5</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>5</v>
       </c>
@@ -14157,7 +14157,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>5</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>5</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>5</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>5</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>5</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>5</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>5</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>5</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>5</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>5</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>5</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>5</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>5</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>5</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>5</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>5</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>5</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>5</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>5</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>5</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>5</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>5</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>5</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>5</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>5</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>5</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>5</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>5</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>5</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>5</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>5</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>5</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>5</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>5</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>5</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>5</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>5</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>5</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>5</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>5</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>5</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>5</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>5</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>5</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>5</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>5</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>5</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>5</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>5</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>5</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>5</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>5</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>5</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>5</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>5</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>5</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>5</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>5</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>5</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>5</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>5</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>5</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>5</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>5</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>5</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>5</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>5</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>5</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>6</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>6</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>6</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>6</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>6</v>
       </c>
@@ -16232,7 +16232,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>6</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>6</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>6</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>6</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>6</v>
       </c>
@@ -16359,7 +16359,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>6</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>6</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>6</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="417" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>6</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="418" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>6</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="419" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>6</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="420" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>6</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="421" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>6</v>
       </c>
@@ -16567,7 +16567,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="422" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>6</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="423" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>6</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="424" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>6</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="425" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>6</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="426" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>6</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="427" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>6</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="428" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>6</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="429" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>6</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="430" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>6</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="431" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>6</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="432" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>6</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="433" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>6</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="434" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>6</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="435" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>6</v>
       </c>
@@ -16931,7 +16931,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="436" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>6</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="437" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>6</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="438" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>6</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="439" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>6</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="440" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>6</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="441" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>6</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="442" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>6</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="443" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>6</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="456" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>6</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="457" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>6</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>6</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="459" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>6</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="460" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>6</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="461" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>6</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="462" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>6</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="463" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>6</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="464" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>6</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="465" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>6</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="466" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>6</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="467" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>6</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="468" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>6</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="469" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>6</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="470" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>6</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="471" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>6</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="472" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>6</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="473" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>6</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="474" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>6</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="475" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>6</v>
       </c>
@@ -18025,7 +18025,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="476" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>6</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>6</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="478" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>6</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="479" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>6</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="480" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>6</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="481" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>6</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="482" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>6</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="483" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>6</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="484" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>6</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>6</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="486" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>6</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>6</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="488" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>6</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>6</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>6</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="491" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>7</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="492" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>7</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="493" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>7</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="494" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>7</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="495" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>7</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>7</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="497" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>7</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>7</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="499" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>7</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="500" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>7</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="501" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>7</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>7</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>7</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>7</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="505" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>7</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="506" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>7</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="507" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>7</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>7</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="509" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>7</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="510" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>7</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="511" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>7</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="512" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>7</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>7</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>7</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="515" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>7</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>7</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="517" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>7</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>7</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="519" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>7</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>7</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="521" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>7</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>7</v>
       </c>
@@ -19055,7 +19055,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="523" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>7</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>7</v>
       </c>
@@ -19095,7 +19095,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="525" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>7</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>7</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="527" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>7</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>7</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="529" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>7</v>
       </c>
@@ -19195,7 +19195,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>7</v>
       </c>
@@ -19215,7 +19215,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="531" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>7</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>7</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>7</v>
       </c>
@@ -19329,7 +19329,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>7</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>7</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>7</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>7</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>7</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>7</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>7</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>7</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="547" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>8</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>8</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>8</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="550" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>8</v>
       </c>
@@ -19534,7 +19534,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>8</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="552" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>8</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>8</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="554" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>8</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>8</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="556" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>8</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>8</v>
       </c>
@@ -19632,7 +19632,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="558" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>8</v>
       </c>
@@ -19646,7 +19646,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="559" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>8</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>8</v>
       </c>
@@ -19674,7 +19674,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="561" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>8</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>8</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="563" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>8</v>
       </c>
@@ -19716,7 +19716,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>8</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="565" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>8</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>8</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="567" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>8</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>8</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="569" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>8</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>8</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="571" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>8</v>
       </c>
@@ -19884,7 +19884,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>8</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="577" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>8</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>8</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="579" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>8</v>
       </c>
@@ -19940,7 +19940,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>8</v>
       </c>
@@ -19954,7 +19954,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="581" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>8</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>8</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="583" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>8</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>8</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="585" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>8</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="591" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>9</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>9</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="593" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>9</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="594" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>9</v>
       </c>
@@ -20150,7 +20150,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="595" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>9</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="596" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>9</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="597" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>9</v>
       </c>
@@ -20192,7 +20192,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="598" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>9</v>
       </c>
@@ -20206,7 +20206,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="599" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>9</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="600" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>9</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="601" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>9</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="602" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>9</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="603" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>9</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="604" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>9</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="605" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>9</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="606" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>9</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="607" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>9</v>
       </c>
@@ -20332,7 +20332,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="608" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>9</v>
       </c>
@@ -20346,7 +20346,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="609" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>9</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="610" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>9</v>
       </c>
@@ -20374,7 +20374,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="611" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>9</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="612" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>9</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="613" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>9</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="614" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>9</v>
       </c>
@@ -20430,7 +20430,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="615" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>9</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="616" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>9</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="617" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>9</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="618" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>9</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="619" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>9</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="620" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>9</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="621" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>9</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="622" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>9</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="623" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>9</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="624" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>9</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="625" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>9</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="626" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>9</v>
       </c>
@@ -20598,7 +20598,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="627" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>9</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="628" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>9</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="629" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>9</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="630" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>9</v>
       </c>
@@ -20654,7 +20654,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="631" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>9</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="632" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>9</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="633" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>9</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="634" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>9</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="635" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>9</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="636" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>9</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="637" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>9</v>
       </c>
@@ -20752,7 +20752,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="638" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>9</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="639" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>9</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="640" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>9</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="641" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>9</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>601</v>
       </c>
       <c r="P642" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="643" spans="1:16" x14ac:dyDescent="0.3">
@@ -20833,7 +20833,7 @@
         <v>602</v>
       </c>
       <c r="P643" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="644" spans="1:16" x14ac:dyDescent="0.3">
@@ -20847,7 +20847,7 @@
         <v>603</v>
       </c>
       <c r="P644" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="645" spans="1:16" x14ac:dyDescent="0.3">
@@ -20861,7 +20861,7 @@
         <v>604</v>
       </c>
       <c r="P645" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="646" spans="1:16" x14ac:dyDescent="0.3">
@@ -20875,7 +20875,7 @@
         <v>605</v>
       </c>
       <c r="P646" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="647" spans="1:16" x14ac:dyDescent="0.3">
@@ -20889,7 +20889,7 @@
         <v>606</v>
       </c>
       <c r="P647" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="648" spans="1:16" x14ac:dyDescent="0.3">
@@ -20903,7 +20903,7 @@
         <v>607</v>
       </c>
       <c r="P648" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="649" spans="1:16" x14ac:dyDescent="0.3">
@@ -20917,7 +20917,7 @@
         <v>608</v>
       </c>
       <c r="P649" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="650" spans="1:16" x14ac:dyDescent="0.3">
@@ -20931,7 +20931,7 @@
         <v>609</v>
       </c>
       <c r="P650" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="651" spans="1:16" x14ac:dyDescent="0.3">
@@ -20945,7 +20945,7 @@
         <v>610</v>
       </c>
       <c r="P651" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="652" spans="1:16" x14ac:dyDescent="0.3">
@@ -20959,7 +20959,7 @@
         <v>611</v>
       </c>
       <c r="P652" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="653" spans="1:16" x14ac:dyDescent="0.3">
@@ -20973,17 +20973,11 @@
         <v>612</v>
       </c>
       <c r="P653" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P653" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="F"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P653" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
